--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Palun/Maurice_Palun.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Palun/Maurice_Palun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Palun est un naturaliste français, né le 26 janvier 1783 à Avignon et mort le 5 février 1866 (à 83 ans) dans cette même ville.
 Il est le conservateur du Muséum Requien d’Avignon de 1851 à 1866 où il succède à Esprit Requien (1788-1851). Il fait paraître en 1867, un Catalogue des plantes phanérogames qui croissent spontanément dans le territoire d’Avignon et dans les lieux circonvoisins.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Charpin et Gérard-Guy Aymonin (2004), Bibliographie sélective des Flores de France. V. Notices biographiques sur les auteurs cités : P-Z et compléments. Le Journal de Botanique de la Société botanique de France, 27 : 47-87.
 Palun est l’abréviation botanique standard de Maurice Palun.
